--- a/biology/Botanique/Parc_Sutter/Parc_Sutter.xlsx
+++ b/biology/Botanique/Parc_Sutter/Parc_Sutter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Sutter est un jardin public situé sur les pentes de la Croix-Rousse dans le 1er arrondissement de Lyon dans le Rhône. On y accède au nord par la rue de Vauzelles et au sud par la place du Lieutenant-Morel. 
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une superficie de 0,5 hectare, ce parc se caractérise par une déclivité prononcée. Les aménagements récemment réalisés ont tiré parti de cette situation en organisant l'espace en terrasses.
 </t>
@@ -543,12 +557,14 @@
           <t>Bâtisse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La maison de la famille Sutter fut à partir de 1975, occupée par une communauté, la « communauté Moulinsart »[1]. À la suite d'un incendie (1977 ou 1978 ?), la mairie transfère la communauté dans un immeuble de la rue René-Leynaud.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La maison de la famille Sutter fut à partir de 1975, occupée par une communauté, la « communauté Moulinsart ». À la suite d'un incendie (1977 ou 1978 ?), la mairie transfère la communauté dans un immeuble de la rue René-Leynaud.
 Depuis les années 2010-2020, plusieurs structures l'occupent :
 l'association Village Sutter, dont le principal objet est d’organiser des animations culturelles et festives ;
-la compagnie des arts du cirque MPTA de Mathurin Bolze[2] ;
+la compagnie des arts du cirque MPTA de Mathurin Bolze ;
 l'association Le Rêve en Couleurs gérant une crèche parentale (au rez-de-chaussée).</t>
         </is>
       </c>
